--- a/Source/Doc/UART Baud Rate Options.xlsx
+++ b/Source/Doc/UART Baud Rate Options.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wayne\Projects\RBC\Build\RomWBW\Source\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FB7F00-BF87-4AB4-89F2-C87B24051AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B169C54-E812-4EDB-A353-AF7C9A811CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5780" yWindow="4110" windowWidth="22570" windowHeight="15370" xr2:uid="{9DBBED76-7669-4306-B061-FC492F3AE3B6}"/>
+    <workbookView xWindow="6120" yWindow="4450" windowWidth="22570" windowHeight="15370" xr2:uid="{9DBBED76-7669-4306-B061-FC492F3AE3B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <t>UART Baud Rate Divisors</t>
   </si>
   <si>
-    <t>Net Clock</t>
+    <t>Baud Clock</t>
   </si>
 </sst>
 </file>
@@ -302,6 +302,19 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -311,19 +324,6 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,7 +641,7 @@
   <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -651,18 +651,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:5" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="8">
         <v>7372800</v>
       </c>
@@ -671,11 +671,11 @@
       </c>
     </row>
     <row r="5" spans="2:5" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19">
+      <c r="C5" s="19"/>
+      <c r="D5" s="13">
         <f>D4/16</f>
         <v>460800</v>
       </c>
@@ -685,7 +685,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
@@ -701,7 +701,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="14"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="6">
         <v>300</v>
       </c>
@@ -715,7 +715,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="14"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="5">
         <v>600</v>
       </c>
@@ -729,7 +729,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="14"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="6">
         <v>1200</v>
       </c>
@@ -743,7 +743,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="14"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="5">
         <v>2400</v>
       </c>
@@ -757,7 +757,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="14"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="6">
         <v>4800</v>
       </c>
@@ -771,7 +771,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="14"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="5">
         <v>9600</v>
       </c>
@@ -785,7 +785,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="14"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="6">
         <v>14400</v>
       </c>
@@ -799,7 +799,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="14"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="5">
         <v>19200</v>
       </c>
@@ -813,7 +813,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="14"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="6">
         <v>38400</v>
       </c>
@@ -827,7 +827,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="14"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="5">
         <v>57600</v>
       </c>
@@ -841,7 +841,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="14"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="6">
         <v>115200</v>
       </c>
@@ -855,7 +855,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="14"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="5">
         <v>230400</v>
       </c>
@@ -863,21 +863,21 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="16">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="2:5" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="15"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="7">
         <v>460800</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="15">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
